--- a/Results/classification_wrt_Seebeck_results_wo_KFold.xlsx
+++ b/Results/classification_wrt_Seebeck_results_wo_KFold.xlsx
@@ -637,7 +637,7 @@
         <v>0.9298999999999999</v>
       </c>
       <c r="G8" t="n">
-        <v>0.3934</v>
+        <v>0.3921</v>
       </c>
     </row>
     <row r="9">
@@ -659,10 +659,10 @@
         <v>0.8331</v>
       </c>
       <c r="F9" t="n">
-        <v>0.8778</v>
+        <v>0.8801</v>
       </c>
       <c r="G9" t="n">
-        <v>0.6289</v>
+        <v>0.6433</v>
       </c>
     </row>
     <row r="10">
@@ -687,7 +687,7 @@
         <v>0.9026999999999999</v>
       </c>
       <c r="G10" t="n">
-        <v>0.3537</v>
+        <v>0.346</v>
       </c>
     </row>
     <row r="11">

--- a/Results/classification_wrt_Seebeck_results_wo_KFold.xlsx
+++ b/Results/classification_wrt_Seebeck_results_wo_KFold.xlsx
@@ -637,7 +637,7 @@
         <v>0.9298999999999999</v>
       </c>
       <c r="G8" t="n">
-        <v>0.3921</v>
+        <v>0.3934</v>
       </c>
     </row>
     <row r="9">
@@ -662,7 +662,7 @@
         <v>0.8801</v>
       </c>
       <c r="G9" t="n">
-        <v>0.6433</v>
+        <v>0.6321</v>
       </c>
     </row>
     <row r="10">
@@ -687,7 +687,7 @@
         <v>0.9026999999999999</v>
       </c>
       <c r="G10" t="n">
-        <v>0.346</v>
+        <v>0.3539</v>
       </c>
     </row>
     <row r="11">

--- a/Results/classification_wrt_Seebeck_results_wo_KFold.xlsx
+++ b/Results/classification_wrt_Seebeck_results_wo_KFold.xlsx
@@ -637,7 +637,7 @@
         <v>0.9298999999999999</v>
       </c>
       <c r="G8" t="n">
-        <v>0.3934</v>
+        <v>0.3953</v>
       </c>
     </row>
     <row r="9">
@@ -662,7 +662,7 @@
         <v>0.8801</v>
       </c>
       <c r="G9" t="n">
-        <v>0.6321</v>
+        <v>0.9329</v>
       </c>
     </row>
     <row r="10">
@@ -687,7 +687,7 @@
         <v>0.9026999999999999</v>
       </c>
       <c r="G10" t="n">
-        <v>0.3539</v>
+        <v>0.3408</v>
       </c>
     </row>
     <row r="11">
